--- a/数据整理/stocks/A股/科创板/688167-炬光科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688167-炬光科技.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -811,7 +812,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -822,17 +823,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -842,13 +863,255 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1802</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009986</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>43.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>43.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009987</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>8</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.33</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688167-炬光科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688167-炬光科技.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1058,7 +1059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1069,17 +1070,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1089,14 +1110,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.28</v>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5944</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1105,13 +1148,423 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4547</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2384</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007854</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大保德信景气先锋混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010495</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007152</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺德策略精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010496</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>8</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.33</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688167-炬光科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688167-炬光科技.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005682</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>财通资管消费精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1582</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.65</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001816</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇添富新睿精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>29.67</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0672</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="4">
@@ -580,226 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010495</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>创金合信创新驱动股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.07</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0666</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010496</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>创金合信创新驱动股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.07</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0128</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501039</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇添富睿丰混合（LOF）A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>30.00</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0118</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>501040</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇添富睿丰混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>30.00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0083</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011020</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>财通资管消费精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002164</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>汇添富新睿精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>29.67</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.33</v>
       </c>
     </row>
   </sheetData>
@@ -808,6 +532,442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5944</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4547</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2384</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007854</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大保德信景气先锋混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010495</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007152</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺德策略精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010496</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1053,13 +1213,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1110,36 +1270,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011104</t>
+          <t>005682</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>光大保德信智能汽车主题股票</t>
+          <t>财通资管消费精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.62</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5944</t>
+          <t>0.1582</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1148,36 +1308,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>506001</t>
+          <t>001816</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+          <t>汇添富新睿精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.12</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.27</t>
+          <t>29.67</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4547</t>
+          <t>0.0672</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1186,36 +1346,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010676</t>
+          <t>010495</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>光大保德信新机遇混合</t>
+          <t>创金合信创新驱动股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>88.07</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.89</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2384</t>
+          <t>0.0666</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1224,36 +1384,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008988</t>
+          <t>010496</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成科技创新混合A</t>
+          <t>创金合信创新驱动股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.57</t>
+          <t>88.07</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1038</t>
+          <t>0.0128</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1262,36 +1422,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007854</t>
+          <t>501039</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>光大保德信景气先锋混合</t>
+          <t>汇添富睿丰混合（LOF）A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>77.45</t>
+          <t>30.00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0760</t>
+          <t>0.0118</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1300,36 +1460,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010495</t>
+          <t>501040</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>创金合信创新驱动股票A</t>
+          <t>汇添富睿丰混合（LOF）C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>88.99</t>
+          <t>30.00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0617</t>
+          <t>0.0083</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1338,36 +1498,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008989</t>
+          <t>011020</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>大成科技创新混合C</t>
+          <t>财通资管消费精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.57</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0432</t>
+          <t>0.0044</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1376,196 +1536,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000166</t>
+          <t>002164</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中海信息产业精选混合</t>
+          <t>汇添富新睿精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.26</t>
+          <t>29.67</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0380</t>
+          <t>0.0038</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007152</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>诺德策略精选混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.68</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.25</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0269</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010496</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>创金合信创新驱动股票C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>88.99</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0143</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.33</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688167-炬光科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688167-炬光科技.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>1.65</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.28</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>8</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -532,6 +549,480 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3302</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010571</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010570</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011438</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013869</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信物联网主题股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011439</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013870</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信物联网主题股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信澳量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>28.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信澳量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>28.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -967,7 +1458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1213,7 +1704,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688167-炬光科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688167-炬光科技.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>1.65</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>0.28</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -549,6 +566,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010571</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010570</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012143</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新沃内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012144</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新沃内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1022,7 +1285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1458,7 +1721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1704,7 +1967,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
